--- a/Final Project/Project.xlsx
+++ b/Final Project/Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yumingwang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yumingwang/Desktop/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DCEA84-9789-7748-9C83-580A0C0001BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74690C55-F78D-B94C-9FDA-C0D3C16B0691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{23616123-5DFD-4746-B5E7-EF34278355D5}"/>
+    <workbookView xWindow="5380" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="3" xr2:uid="{23616123-5DFD-4746-B5E7-EF34278355D5}"/>
   </bookViews>
   <sheets>
     <sheet name="China " sheetId="1" r:id="rId1"/>
@@ -36,50 +36,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
   <si>
     <t>Year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Average Wage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Mining</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Manufacturing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Production and supply of Electricity,Heat,Gas and Water</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Construction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Wholesale and Retail Trades</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Transport, Storage and Post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Information Transmission, software and Information Technology</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Financial Intermediation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Education</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Average Wage of Employee wages by industry, annual section </t>
@@ -158,42 +158,6 @@
   </si>
   <si>
     <t>This combines the North American Industry Classification System (NAICS) codes 41 to 91.</t>
-  </si>
-  <si>
-    <t>Also referred to as Natural resources.</t>
-  </si>
-  <si>
-    <t>Labour Force Survey (LFS) North American Industry Classification System (NAICS) code exception: add group 2100 - Mining - not elsewhere classified (nec). Whenever the type of mining activity cannot be distinguished.</t>
-  </si>
-  <si>
-    <t>Labour Force Survey (LFS) North American Industry Classification System (NAICS) code exception: add group 1100 - Farming - not elsewhere classified (nec). When the type of farm activity cannot be distinguished between crop and livestock, (example: mixed farming).</t>
-  </si>
-  <si>
-    <t>This combines the North American Industry Classification System (NAICS) codes 11 to 33.</t>
-  </si>
-  <si>
-    <t>This combines the North American Industry Classification System (NAICS) codes 11 to 91.</t>
-  </si>
-  <si>
-    <t>Industry refers to the general nature of the business carried out by the employer for whom the respondent works (main job only). Industry estimates in this table are based on the 2012 North American Industry Classification System (NAICS).</t>
-  </si>
-  <si>
-    <t>Full-time employees are those who usually work 30 hours or more per week at their main or only job. Estimates in thousands, rounded to the nearest hundred.</t>
-  </si>
-  <si>
-    <t>Beginning January 1997, information is collected on the usual wages or salary of employees at their main job. Respondents are asked to report their wage/salary before taxes and other deductions, and include tips, commissions and bonuses. Weekly and hourly wages/salaries are calculated in conjunction with usual paid work hours per week.</t>
-  </si>
-  <si>
-    <t>Excluding the territories.</t>
-  </si>
-  <si>
-    <t>To ensure respondent confidentiality, estimates below a certain threshold are suppressed. For Canada, Quebec, Ontario, Alberta and British Columbia suppression is applied to all data below 1,500. The threshold level for Newfoundland and Labrador, Nova Scotia, New Brunswick, Manitoba and Saskatchewan is 500, while in Prince Edward Island, estimates under 200 are supressed. For census metropolitan areas (CMAs) and economic regions (ERs), use their respective provincial suppression levels mentioned above. Estimates are based on smaller sample sizes the more detailed the table becomes, which could result in lower data quality.</t>
-  </si>
-  <si>
-    <t>Footnotes:</t>
-  </si>
-  <si>
-    <t>Symbol legend:</t>
   </si>
   <si>
     <t>Educational services</t>
@@ -287,28 +251,42 @@
   </si>
   <si>
     <t xml:space="preserve">Total (Wholesale trade and retail trade) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Education </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Annually Wage of Employee wages by industry, annual section </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="178" formatCode="#0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,6 +358,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -401,19 +400,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -439,121 +429,151 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="4" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="40% - 着色 5" xfId="1" builtinId="47"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C0AEE1B6-1E93-4D68-80CC-D470786939C9}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{EC8F33B0-5449-4313-A045-914F4D51AB08}"/>
+    <cellStyle name="百分比" xfId="5" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
@@ -869,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD283C94-2119-574F-85C7-4C0A85BC42E0}">
   <dimension ref="A1:L16407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -917,7 +937,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="80">
@@ -1315,7 +1335,7 @@
         <v>4614.1176470588234</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" ref="C18:L18" si="0">C17-C8</f>
+        <f t="shared" ref="C18:K18" si="0">C17-C8</f>
         <v>3756.3235294117649</v>
       </c>
       <c r="D18" s="12">
@@ -1356,43 +1376,43 @@
       <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="49">
         <f>(B17-B8)/B8</f>
         <v>1.7240507720204405</v>
       </c>
-      <c r="C19" s="12">
-        <f t="shared" ref="C19:L19" si="1">(C17-C8)/C8</f>
+      <c r="C19" s="49">
+        <f t="shared" ref="C19:K19" si="1">(C17-C8)/C8</f>
         <v>1.3767584757182127</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="49">
         <f t="shared" si="1"/>
         <v>1.8548667439165698</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="49">
         <f t="shared" si="1"/>
         <v>1.4860354032031469</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="49">
         <f t="shared" si="1"/>
         <v>1.5609805204610663</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="49">
         <f t="shared" si="1"/>
         <v>1.5416033755274261</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="49">
         <f t="shared" si="1"/>
         <v>1.5744626668024855</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="49">
         <f t="shared" si="1"/>
         <v>1.7098629553362212</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="49">
         <f t="shared" si="1"/>
         <v>1.0669578352817553</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="49">
         <f t="shared" si="1"/>
         <v>1.1944365328016708</v>
       </c>
@@ -1400,13 +1420,13 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C25" s="9"/>
     </row>
@@ -50428,7 +50448,7 @@
       <c r="B16407" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A25" r:id="rId1" xr:uid="{BA1E536F-F9EE-4CDF-90DB-ED919FAC8842}"/>
   </hyperlinks>
@@ -50439,10 +50459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC221D87-6120-4989-BB67-9223A222D7AD}">
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -50456,7 +50476,7 @@
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
     <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -50475,7 +50495,7 @@
       </c>
     </row>
     <row r="2" spans="1:56">
-      <c r="A2" t="s">
+      <c r="A2" s="27" t="s">
         <v>19</v>
       </c>
     </row>
@@ -50491,7 +50511,7 @@
     </row>
     <row r="5" spans="1:56">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:56" s="3" customFormat="1" ht="78.5" customHeight="1">
@@ -50501,32 +50521,32 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>79</v>
+      <c r="J7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>67</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -50568,34 +50588,34 @@
       <c r="A8">
         <v>2009</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="29">
         <v>758</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="30">
         <v>1141.25</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="32">
         <v>924.63</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="33">
         <v>918.26</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <v>783.56</v>
       </c>
       <c r="G8" s="35">
         <v>1328.84</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="36">
         <v>1093.97</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="37">
         <v>985.27</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="38">
         <v>733.41</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="31">
         <v>1457.87</v>
       </c>
       <c r="L8" s="4"/>
@@ -50618,39 +50638,39 @@
       <c r="BC8"/>
       <c r="BD8"/>
     </row>
-    <row r="9" spans="1:56" s="2" customFormat="1">
-      <c r="A9" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="2">
-        <v>950.13</v>
-      </c>
-      <c r="C9" s="36">
-        <v>1509.82</v>
-      </c>
-      <c r="D9" s="36">
-        <v>1196.29</v>
-      </c>
-      <c r="E9" s="36">
-        <v>1117.3900000000001</v>
-      </c>
-      <c r="F9" s="36">
-        <v>949.94</v>
-      </c>
-      <c r="G9" s="36">
-        <v>1760.53</v>
+    <row r="9" spans="1:56">
+      <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="29">
+        <v>780.67</v>
+      </c>
+      <c r="C9" s="30">
+        <v>1218.48</v>
+      </c>
+      <c r="D9" s="32">
+        <v>963.3</v>
+      </c>
+      <c r="E9" s="33">
+        <v>951.35</v>
+      </c>
+      <c r="F9" s="34">
+        <v>816.57</v>
+      </c>
+      <c r="G9" s="35">
+        <v>1381.44</v>
       </c>
       <c r="H9" s="36">
-        <v>1504.64</v>
-      </c>
-      <c r="I9" s="36">
-        <v>1329.54</v>
-      </c>
-      <c r="J9" s="36">
-        <v>900.24</v>
-      </c>
-      <c r="K9" s="39">
-        <v>1794.62</v>
+        <v>1137.53</v>
+      </c>
+      <c r="I9" s="37">
+        <v>1022.85</v>
+      </c>
+      <c r="J9" s="38">
+        <v>756.68</v>
+      </c>
+      <c r="K9" s="31">
+        <v>1499.71</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -50661,241 +50681,1855 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-    </row>
-    <row r="10" spans="1:56" s="15" customFormat="1">
-      <c r="A10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="12">
-        <f>B9-B8</f>
-        <v>192.13</v>
-      </c>
-      <c r="C10" s="37">
-        <f t="shared" ref="C10:J10" si="0">C9-C8</f>
-        <v>368.56999999999994</v>
-      </c>
-      <c r="D10" s="37">
-        <f t="shared" si="0"/>
-        <v>271.65999999999997</v>
-      </c>
-      <c r="E10" s="37">
-        <f t="shared" si="0"/>
-        <v>199.13000000000011</v>
-      </c>
-      <c r="F10" s="37">
-        <f t="shared" si="0"/>
-        <v>166.38000000000011</v>
-      </c>
-      <c r="G10" s="37">
-        <f t="shared" si="0"/>
-        <v>431.69000000000005</v>
-      </c>
-      <c r="H10" s="37">
-        <f t="shared" si="0"/>
-        <v>410.67000000000007</v>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+    </row>
+    <row r="10" spans="1:56">
+      <c r="A10">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="29">
+        <v>798.42</v>
+      </c>
+      <c r="C10" s="30">
+        <v>1268.42</v>
+      </c>
+      <c r="D10" s="32">
+        <v>981.37</v>
+      </c>
+      <c r="E10" s="33">
+        <v>967.5</v>
+      </c>
+      <c r="F10" s="34">
+        <v>836.2</v>
+      </c>
+      <c r="G10" s="35">
+        <v>1377.19</v>
+      </c>
+      <c r="H10" s="36">
+        <v>1166.93</v>
       </c>
       <c r="I10" s="37">
-        <f t="shared" si="0"/>
-        <v>344.27</v>
-      </c>
-      <c r="J10" s="37">
-        <f t="shared" si="0"/>
-        <v>166.83000000000004</v>
-      </c>
-      <c r="K10" s="41">
-        <v>336.75</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
-    </row>
-    <row r="11" spans="1:56" s="15" customFormat="1">
-      <c r="A11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="12">
-        <f>(B9-B8)/B8</f>
-        <v>0.2534696569920844</v>
-      </c>
-      <c r="C11" s="37">
-        <f t="shared" ref="C11:J11" si="1">(C9-C8)/C8</f>
-        <v>0.32295290251916753</v>
-      </c>
-      <c r="D11" s="37">
-        <f t="shared" si="1"/>
-        <v>0.29380400808972235</v>
-      </c>
-      <c r="E11" s="37">
-        <f t="shared" si="1"/>
-        <v>0.21685579247707634</v>
-      </c>
-      <c r="F11" s="37">
-        <f t="shared" si="1"/>
-        <v>0.21233855735361698</v>
-      </c>
-      <c r="G11" s="37">
-        <f t="shared" si="1"/>
-        <v>0.32486228590349486</v>
-      </c>
-      <c r="H11" s="37">
-        <f t="shared" si="1"/>
-        <v>0.37539420642247967</v>
+        <v>1057.83</v>
+      </c>
+      <c r="J10" s="38">
+        <v>776.7</v>
+      </c>
+      <c r="K10" s="31">
+        <v>1535.62</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+    </row>
+    <row r="11" spans="1:56">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="29">
+        <v>818.69</v>
+      </c>
+      <c r="C11" s="30">
+        <v>1261.44</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1014.65</v>
+      </c>
+      <c r="E11" s="33">
+        <v>980.46</v>
+      </c>
+      <c r="F11" s="34">
+        <v>842.5</v>
+      </c>
+      <c r="G11" s="35">
+        <v>1473.62</v>
+      </c>
+      <c r="H11" s="36">
+        <v>1174.94</v>
       </c>
       <c r="I11" s="37">
-        <f t="shared" si="1"/>
-        <v>0.34941691110051049</v>
-      </c>
-      <c r="J11" s="37">
-        <f t="shared" si="1"/>
-        <v>0.22747167341596111</v>
-      </c>
-      <c r="K11" s="41">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="16"/>
-      <c r="AP11" s="16"/>
-      <c r="AQ11" s="16"/>
-      <c r="AR11" s="16"/>
-      <c r="AS11" s="16"/>
-      <c r="AT11" s="16"/>
-    </row>
-    <row r="13" spans="1:56" ht="45.5" customHeight="1">
+        <v>1111.54</v>
+      </c>
+      <c r="J11" s="38">
+        <v>795.73</v>
+      </c>
+      <c r="K11" s="31">
+        <v>1577.98</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+    </row>
+    <row r="12" spans="1:56">
+      <c r="A12">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="29">
+        <v>831.45</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1359.85</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1020.91</v>
+      </c>
+      <c r="E12" s="33">
+        <v>1006.96</v>
+      </c>
+      <c r="F12" s="34">
+        <v>878.82</v>
+      </c>
+      <c r="G12" s="35">
+        <v>1502.32</v>
+      </c>
+      <c r="H12" s="36">
+        <v>1228.3800000000001</v>
+      </c>
+      <c r="I12" s="37">
+        <v>1124.06</v>
+      </c>
+      <c r="J12" s="38">
+        <v>800</v>
+      </c>
+      <c r="K12" s="31">
+        <v>1596.33</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+    </row>
+    <row r="13" spans="1:56">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13" s="29">
+        <v>852.89</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1389.98</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1050.6199999999999</v>
+      </c>
+      <c r="E13" s="33">
+        <v>1021.72</v>
+      </c>
+      <c r="F13" s="34">
+        <v>888.09</v>
+      </c>
+      <c r="G13" s="35">
+        <v>1520.04</v>
+      </c>
+      <c r="H13" s="36">
+        <v>1257.06</v>
+      </c>
+      <c r="I13" s="37">
+        <v>1160.9000000000001</v>
+      </c>
+      <c r="J13" s="38">
+        <v>817.7</v>
+      </c>
+      <c r="K13" s="31">
+        <v>1630.26</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
       <c r="BB13"/>
       <c r="BC13"/>
       <c r="BD13"/>
     </row>
     <row r="14" spans="1:56">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
+      <c r="A14">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="29">
+        <v>871.82</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1394.12</v>
+      </c>
+      <c r="D14" s="32">
+        <v>1093.75</v>
+      </c>
+      <c r="E14" s="33">
+        <v>1039.07</v>
+      </c>
+      <c r="F14" s="34">
+        <v>893.49</v>
+      </c>
+      <c r="G14" s="35">
+        <v>1599.33</v>
+      </c>
+      <c r="H14" s="36">
+        <v>1291.32</v>
+      </c>
+      <c r="I14" s="37">
+        <v>1199.6099999999999</v>
+      </c>
+      <c r="J14" s="38">
+        <v>836.07</v>
+      </c>
+      <c r="K14" s="31">
+        <v>1674.58</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
       <c r="BB14"/>
       <c r="BC14"/>
       <c r="BD14"/>
     </row>
     <row r="15" spans="1:56">
-      <c r="A15" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="A15">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="29">
+        <v>889.74</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1401.9</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1105.54</v>
+      </c>
+      <c r="E15" s="33">
+        <v>1071.6300000000001</v>
+      </c>
+      <c r="F15" s="34">
+        <v>905.97</v>
+      </c>
+      <c r="G15" s="35">
+        <v>1649</v>
+      </c>
+      <c r="H15" s="36">
+        <v>1351.08</v>
+      </c>
+      <c r="I15" s="37">
+        <v>1222.6099999999999</v>
+      </c>
+      <c r="J15" s="38">
+        <v>854.41</v>
+      </c>
+      <c r="K15" s="31">
+        <v>1713.2599999999998</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+      <c r="AW15"/>
+      <c r="AX15"/>
+      <c r="AY15"/>
+      <c r="AZ15"/>
+      <c r="BA15"/>
       <c r="BB15"/>
       <c r="BC15"/>
       <c r="BD15"/>
     </row>
     <row r="16" spans="1:56">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="29">
+        <v>919.08</v>
+      </c>
+      <c r="C16" s="30">
+        <v>1468.32</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1148.17</v>
+      </c>
+      <c r="E16" s="33">
+        <v>1092.6199999999999</v>
+      </c>
+      <c r="F16" s="34">
+        <v>930.65</v>
+      </c>
+      <c r="G16" s="35">
+        <v>1658.16</v>
+      </c>
+      <c r="H16" s="36">
+        <v>1401.4</v>
+      </c>
+      <c r="I16" s="37">
+        <v>1279.53</v>
+      </c>
+      <c r="J16" s="38">
+        <v>878.46</v>
+      </c>
+      <c r="K16" s="31">
+        <v>1753.3799999999999</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16"/>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
       <c r="BB16"/>
       <c r="BC16"/>
       <c r="BD16"/>
     </row>
-    <row r="17" spans="18:56">
+    <row r="17" spans="1:56">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="29">
+        <v>950.13</v>
+      </c>
+      <c r="C17" s="30">
+        <v>1509.82</v>
+      </c>
+      <c r="D17" s="32">
+        <v>1196.29</v>
+      </c>
+      <c r="E17" s="33">
+        <v>1117.3900000000001</v>
+      </c>
+      <c r="F17" s="34">
+        <v>949.94</v>
+      </c>
+      <c r="G17" s="35">
+        <v>1760.53</v>
+      </c>
+      <c r="H17" s="36">
+        <v>1504.64</v>
+      </c>
+      <c r="I17" s="37">
+        <v>1329.54</v>
+      </c>
+      <c r="J17" s="38">
+        <v>900.24</v>
+      </c>
+      <c r="K17" s="31">
+        <v>1794.6200000000001</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
       <c r="BB17"/>
       <c r="BC17"/>
       <c r="BD17"/>
     </row>
+    <row r="18" spans="1:56" s="15" customFormat="1">
+      <c r="A18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="12">
+        <f>B17-B8</f>
+        <v>192.13</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" ref="C18:K18" si="0">C17-C8</f>
+        <v>368.56999999999994</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="0"/>
+        <v>271.65999999999997</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="0"/>
+        <v>199.13000000000011</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>166.38000000000011</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="0"/>
+        <v>431.69000000000005</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="0"/>
+        <v>410.67000000000007</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="0"/>
+        <v>344.27</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="0"/>
+        <v>166.83000000000004</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="0"/>
+        <v>336.75000000000023</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+    </row>
+    <row r="19" spans="1:56" s="15" customFormat="1">
+      <c r="A19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="12">
+        <f>(B17-B8)/B8</f>
+        <v>0.2534696569920844</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" ref="C19:K19" si="1">(C17-C8)/C8</f>
+        <v>0.32295290251916753</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.29380400808972235</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.21685579247707634</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.21233855735361698</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.32486228590349486</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.37539420642247967</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.34941691110051049</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.22747167341596111</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.23098767379807544</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="16"/>
+      <c r="AO19" s="16"/>
+      <c r="AP19" s="16"/>
+      <c r="AQ19" s="16"/>
+      <c r="AR19" s="16"/>
+      <c r="AS19" s="16"/>
+      <c r="AT19" s="16"/>
+    </row>
+    <row r="20" spans="1:56" s="28" customFormat="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="16"/>
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
+    </row>
+    <row r="21" spans="1:56" s="28" customFormat="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="16"/>
+      <c r="AO21" s="16"/>
+      <c r="AP21" s="16"/>
+      <c r="AQ21" s="16"/>
+      <c r="AR21" s="16"/>
+      <c r="AS21" s="16"/>
+      <c r="AT21" s="16"/>
+    </row>
+    <row r="22" spans="1:56" s="28" customFormat="1">
+      <c r="A22" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="16"/>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="16"/>
+      <c r="AQ22" s="16"/>
+      <c r="AR22" s="16"/>
+      <c r="AS22" s="16"/>
+      <c r="AT22" s="16"/>
+    </row>
+    <row r="23" spans="1:56" s="28" customFormat="1">
+      <c r="A23" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="16"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="16"/>
+    </row>
+    <row r="24" spans="1:56" s="28" customFormat="1">
+      <c r="A24" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="16"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="16"/>
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="16"/>
+    </row>
+    <row r="25" spans="1:56" s="28" customFormat="1">
+      <c r="A25" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="16"/>
+      <c r="AM25" s="16"/>
+      <c r="AN25" s="16"/>
+      <c r="AO25" s="16"/>
+      <c r="AP25" s="16"/>
+      <c r="AQ25" s="16"/>
+      <c r="AR25" s="16"/>
+      <c r="AS25" s="16"/>
+      <c r="AT25" s="16"/>
+    </row>
+    <row r="26" spans="1:56" s="28" customFormat="1">
+      <c r="A26" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="16"/>
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="16"/>
+      <c r="AP26" s="16"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="16"/>
+    </row>
+    <row r="28" spans="1:56" s="3" customFormat="1" ht="78.5" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+    </row>
+    <row r="29" spans="1:56">
+      <c r="A29">
+        <v>2009</v>
+      </c>
+      <c r="B29" s="29">
+        <f>B8*4*12</f>
+        <v>36384</v>
+      </c>
+      <c r="C29" s="29">
+        <f t="shared" ref="C29:K29" si="2">C8*4*12</f>
+        <v>54780</v>
+      </c>
+      <c r="D29" s="29">
+        <f t="shared" si="2"/>
+        <v>44382.239999999998</v>
+      </c>
+      <c r="E29" s="29">
+        <f t="shared" si="2"/>
+        <v>44076.479999999996</v>
+      </c>
+      <c r="F29" s="29">
+        <f t="shared" si="2"/>
+        <v>37610.879999999997</v>
+      </c>
+      <c r="G29" s="29">
+        <f t="shared" si="2"/>
+        <v>63784.319999999992</v>
+      </c>
+      <c r="H29" s="29">
+        <f t="shared" si="2"/>
+        <v>52510.559999999998</v>
+      </c>
+      <c r="I29" s="29">
+        <f t="shared" si="2"/>
+        <v>47292.959999999999</v>
+      </c>
+      <c r="J29" s="29">
+        <f t="shared" si="2"/>
+        <v>35203.68</v>
+      </c>
+      <c r="K29" s="29">
+        <f t="shared" si="2"/>
+        <v>69977.759999999995</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+    </row>
+    <row r="30" spans="1:56">
+      <c r="A30">
+        <v>2010</v>
+      </c>
+      <c r="B30" s="29">
+        <f t="shared" ref="B30:K38" si="3">B9*4*12</f>
+        <v>37472.159999999996</v>
+      </c>
+      <c r="C30" s="29">
+        <f t="shared" si="3"/>
+        <v>58487.040000000001</v>
+      </c>
+      <c r="D30" s="29">
+        <f t="shared" si="3"/>
+        <v>46238.399999999994</v>
+      </c>
+      <c r="E30" s="29">
+        <f t="shared" si="3"/>
+        <v>45664.800000000003</v>
+      </c>
+      <c r="F30" s="29">
+        <f t="shared" si="3"/>
+        <v>39195.360000000001</v>
+      </c>
+      <c r="G30" s="29">
+        <f t="shared" si="3"/>
+        <v>66309.119999999995</v>
+      </c>
+      <c r="H30" s="29">
+        <f t="shared" si="3"/>
+        <v>54601.440000000002</v>
+      </c>
+      <c r="I30" s="29">
+        <f t="shared" si="3"/>
+        <v>49096.800000000003</v>
+      </c>
+      <c r="J30" s="29">
+        <f t="shared" si="3"/>
+        <v>36320.639999999999</v>
+      </c>
+      <c r="K30" s="29">
+        <f t="shared" si="3"/>
+        <v>71986.080000000002</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+      <c r="AW30"/>
+      <c r="AX30"/>
+      <c r="AY30"/>
+      <c r="AZ30"/>
+      <c r="BA30"/>
+      <c r="BB30"/>
+      <c r="BC30"/>
+      <c r="BD30"/>
+    </row>
+    <row r="31" spans="1:56">
+      <c r="A31">
+        <v>2011</v>
+      </c>
+      <c r="B31" s="29">
+        <f t="shared" si="3"/>
+        <v>38324.159999999996</v>
+      </c>
+      <c r="C31" s="29">
+        <f t="shared" si="3"/>
+        <v>60884.160000000003</v>
+      </c>
+      <c r="D31" s="29">
+        <f t="shared" si="3"/>
+        <v>47105.760000000002</v>
+      </c>
+      <c r="E31" s="29">
+        <f t="shared" si="3"/>
+        <v>46440</v>
+      </c>
+      <c r="F31" s="29">
+        <f t="shared" si="3"/>
+        <v>40137.600000000006</v>
+      </c>
+      <c r="G31" s="29">
+        <f t="shared" si="3"/>
+        <v>66105.119999999995</v>
+      </c>
+      <c r="H31" s="29">
+        <f t="shared" si="3"/>
+        <v>56012.639999999999</v>
+      </c>
+      <c r="I31" s="29">
+        <f t="shared" si="3"/>
+        <v>50775.839999999997</v>
+      </c>
+      <c r="J31" s="29">
+        <f t="shared" si="3"/>
+        <v>37281.600000000006</v>
+      </c>
+      <c r="K31" s="29">
+        <f t="shared" si="3"/>
+        <v>73709.759999999995</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31"/>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="BA31"/>
+      <c r="BB31"/>
+      <c r="BC31"/>
+      <c r="BD31"/>
+    </row>
+    <row r="32" spans="1:56">
+      <c r="A32">
+        <v>2012</v>
+      </c>
+      <c r="B32" s="29">
+        <f t="shared" si="3"/>
+        <v>39297.120000000003</v>
+      </c>
+      <c r="C32" s="29">
+        <f t="shared" si="3"/>
+        <v>60549.120000000003</v>
+      </c>
+      <c r="D32" s="29">
+        <f t="shared" si="3"/>
+        <v>48703.199999999997</v>
+      </c>
+      <c r="E32" s="29">
+        <f t="shared" si="3"/>
+        <v>47062.080000000002</v>
+      </c>
+      <c r="F32" s="29">
+        <f t="shared" si="3"/>
+        <v>40440</v>
+      </c>
+      <c r="G32" s="29">
+        <f t="shared" si="3"/>
+        <v>70733.759999999995</v>
+      </c>
+      <c r="H32" s="29">
+        <f t="shared" si="3"/>
+        <v>56397.120000000003</v>
+      </c>
+      <c r="I32" s="29">
+        <f t="shared" si="3"/>
+        <v>53353.919999999998</v>
+      </c>
+      <c r="J32" s="29">
+        <f t="shared" si="3"/>
+        <v>38195.040000000001</v>
+      </c>
+      <c r="K32" s="29">
+        <f t="shared" si="3"/>
+        <v>75743.040000000008</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="AU32"/>
+      <c r="AV32"/>
+      <c r="AW32"/>
+      <c r="AX32"/>
+      <c r="AY32"/>
+      <c r="AZ32"/>
+      <c r="BA32"/>
+      <c r="BB32"/>
+      <c r="BC32"/>
+      <c r="BD32"/>
+    </row>
+    <row r="33" spans="1:56">
+      <c r="A33">
+        <v>2013</v>
+      </c>
+      <c r="B33" s="29">
+        <f t="shared" si="3"/>
+        <v>39909.600000000006</v>
+      </c>
+      <c r="C33" s="29">
+        <f t="shared" si="3"/>
+        <v>65272.799999999996</v>
+      </c>
+      <c r="D33" s="29">
+        <f t="shared" si="3"/>
+        <v>49003.68</v>
+      </c>
+      <c r="E33" s="29">
+        <f t="shared" si="3"/>
+        <v>48334.080000000002</v>
+      </c>
+      <c r="F33" s="29">
+        <f t="shared" si="3"/>
+        <v>42183.360000000001</v>
+      </c>
+      <c r="G33" s="29">
+        <f t="shared" si="3"/>
+        <v>72111.360000000001</v>
+      </c>
+      <c r="H33" s="29">
+        <f t="shared" si="3"/>
+        <v>58962.240000000005</v>
+      </c>
+      <c r="I33" s="29">
+        <f t="shared" si="3"/>
+        <v>53954.879999999997</v>
+      </c>
+      <c r="J33" s="29">
+        <f t="shared" si="3"/>
+        <v>38400</v>
+      </c>
+      <c r="K33" s="29">
+        <f t="shared" si="3"/>
+        <v>76623.839999999997</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="AU33"/>
+      <c r="AV33"/>
+      <c r="AW33"/>
+      <c r="AX33"/>
+      <c r="AY33"/>
+      <c r="AZ33"/>
+      <c r="BA33"/>
+      <c r="BB33"/>
+      <c r="BC33"/>
+      <c r="BD33"/>
+    </row>
+    <row r="34" spans="1:56">
+      <c r="A34">
+        <v>2014</v>
+      </c>
+      <c r="B34" s="29">
+        <f t="shared" si="3"/>
+        <v>40938.720000000001</v>
+      </c>
+      <c r="C34" s="29">
+        <f t="shared" si="3"/>
+        <v>66719.040000000008</v>
+      </c>
+      <c r="D34" s="29">
+        <f t="shared" si="3"/>
+        <v>50429.759999999995</v>
+      </c>
+      <c r="E34" s="29">
+        <f t="shared" si="3"/>
+        <v>49042.559999999998</v>
+      </c>
+      <c r="F34" s="29">
+        <f t="shared" si="3"/>
+        <v>42628.32</v>
+      </c>
+      <c r="G34" s="29">
+        <f t="shared" si="3"/>
+        <v>72961.919999999998</v>
+      </c>
+      <c r="H34" s="29">
+        <f t="shared" si="3"/>
+        <v>60338.879999999997</v>
+      </c>
+      <c r="I34" s="29">
+        <f t="shared" si="3"/>
+        <v>55723.200000000004</v>
+      </c>
+      <c r="J34" s="29">
+        <f t="shared" si="3"/>
+        <v>39249.600000000006</v>
+      </c>
+      <c r="K34" s="29">
+        <f t="shared" si="3"/>
+        <v>78252.479999999996</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="AU34"/>
+      <c r="AV34"/>
+      <c r="AW34"/>
+      <c r="AX34"/>
+      <c r="AY34"/>
+      <c r="AZ34"/>
+      <c r="BA34"/>
+      <c r="BB34"/>
+      <c r="BC34"/>
+      <c r="BD34"/>
+    </row>
+    <row r="35" spans="1:56">
+      <c r="A35">
+        <v>2015</v>
+      </c>
+      <c r="B35" s="29">
+        <f t="shared" si="3"/>
+        <v>41847.360000000001</v>
+      </c>
+      <c r="C35" s="29">
+        <f t="shared" si="3"/>
+        <v>66917.759999999995</v>
+      </c>
+      <c r="D35" s="29">
+        <f t="shared" si="3"/>
+        <v>52500</v>
+      </c>
+      <c r="E35" s="29">
+        <f t="shared" si="3"/>
+        <v>49875.360000000001</v>
+      </c>
+      <c r="F35" s="29">
+        <f t="shared" si="3"/>
+        <v>42887.520000000004</v>
+      </c>
+      <c r="G35" s="29">
+        <f t="shared" si="3"/>
+        <v>76767.839999999997</v>
+      </c>
+      <c r="H35" s="29">
+        <f t="shared" si="3"/>
+        <v>61983.360000000001</v>
+      </c>
+      <c r="I35" s="29">
+        <f t="shared" si="3"/>
+        <v>57581.279999999999</v>
+      </c>
+      <c r="J35" s="29">
+        <f t="shared" si="3"/>
+        <v>40131.360000000001</v>
+      </c>
+      <c r="K35" s="29">
+        <f t="shared" si="3"/>
+        <v>80379.839999999997</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="AU35"/>
+      <c r="AV35"/>
+      <c r="AW35"/>
+      <c r="AX35"/>
+      <c r="AY35"/>
+      <c r="AZ35"/>
+      <c r="BA35"/>
+      <c r="BB35"/>
+      <c r="BC35"/>
+      <c r="BD35"/>
+    </row>
+    <row r="36" spans="1:56">
+      <c r="A36">
+        <v>2016</v>
+      </c>
+      <c r="B36" s="29">
+        <f t="shared" si="3"/>
+        <v>42707.520000000004</v>
+      </c>
+      <c r="C36" s="29">
+        <f t="shared" si="3"/>
+        <v>67291.200000000012</v>
+      </c>
+      <c r="D36" s="29">
+        <f t="shared" si="3"/>
+        <v>53065.919999999998</v>
+      </c>
+      <c r="E36" s="29">
+        <f t="shared" si="3"/>
+        <v>51438.240000000005</v>
+      </c>
+      <c r="F36" s="29">
+        <f t="shared" si="3"/>
+        <v>43486.559999999998</v>
+      </c>
+      <c r="G36" s="29">
+        <f t="shared" si="3"/>
+        <v>79152</v>
+      </c>
+      <c r="H36" s="29">
+        <f t="shared" si="3"/>
+        <v>64851.839999999997</v>
+      </c>
+      <c r="I36" s="29">
+        <f t="shared" si="3"/>
+        <v>58685.279999999999</v>
+      </c>
+      <c r="J36" s="29">
+        <f t="shared" si="3"/>
+        <v>41011.68</v>
+      </c>
+      <c r="K36" s="29">
+        <f t="shared" si="3"/>
+        <v>82236.479999999981</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="AU36"/>
+      <c r="AV36"/>
+      <c r="AW36"/>
+      <c r="AX36"/>
+      <c r="AY36"/>
+      <c r="AZ36"/>
+      <c r="BA36"/>
+      <c r="BB36"/>
+      <c r="BC36"/>
+      <c r="BD36"/>
+    </row>
+    <row r="37" spans="1:56">
+      <c r="A37">
+        <v>2017</v>
+      </c>
+      <c r="B37" s="29">
+        <f t="shared" si="3"/>
+        <v>44115.840000000004</v>
+      </c>
+      <c r="C37" s="29">
+        <f t="shared" si="3"/>
+        <v>70479.360000000001</v>
+      </c>
+      <c r="D37" s="29">
+        <f t="shared" si="3"/>
+        <v>55112.160000000003</v>
+      </c>
+      <c r="E37" s="29">
+        <f t="shared" si="3"/>
+        <v>52445.759999999995</v>
+      </c>
+      <c r="F37" s="29">
+        <f t="shared" si="3"/>
+        <v>44671.199999999997</v>
+      </c>
+      <c r="G37" s="29">
+        <f t="shared" si="3"/>
+        <v>79591.680000000008</v>
+      </c>
+      <c r="H37" s="29">
+        <f t="shared" si="3"/>
+        <v>67267.200000000012</v>
+      </c>
+      <c r="I37" s="29">
+        <f t="shared" si="3"/>
+        <v>61417.440000000002</v>
+      </c>
+      <c r="J37" s="29">
+        <f t="shared" si="3"/>
+        <v>42166.080000000002</v>
+      </c>
+      <c r="K37" s="29">
+        <f t="shared" si="3"/>
+        <v>84162.239999999991</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="AU37"/>
+      <c r="AV37"/>
+      <c r="AW37"/>
+      <c r="AX37"/>
+      <c r="AY37"/>
+      <c r="AZ37"/>
+      <c r="BA37"/>
+      <c r="BB37"/>
+      <c r="BC37"/>
+      <c r="BD37"/>
+    </row>
+    <row r="38" spans="1:56">
+      <c r="A38">
+        <v>2018</v>
+      </c>
+      <c r="B38" s="29">
+        <f t="shared" si="3"/>
+        <v>45606.239999999998</v>
+      </c>
+      <c r="C38" s="29">
+        <f t="shared" si="3"/>
+        <v>72471.360000000001</v>
+      </c>
+      <c r="D38" s="29">
+        <f t="shared" si="3"/>
+        <v>57421.919999999998</v>
+      </c>
+      <c r="E38" s="29">
+        <f t="shared" si="3"/>
+        <v>53634.720000000001</v>
+      </c>
+      <c r="F38" s="29">
+        <f t="shared" si="3"/>
+        <v>45597.120000000003</v>
+      </c>
+      <c r="G38" s="29">
+        <f t="shared" si="3"/>
+        <v>84505.44</v>
+      </c>
+      <c r="H38" s="29">
+        <f t="shared" si="3"/>
+        <v>72222.720000000001</v>
+      </c>
+      <c r="I38" s="29">
+        <f t="shared" si="3"/>
+        <v>63817.919999999998</v>
+      </c>
+      <c r="J38" s="29">
+        <f t="shared" si="3"/>
+        <v>43211.520000000004</v>
+      </c>
+      <c r="K38" s="29">
+        <f t="shared" si="3"/>
+        <v>86141.760000000009</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="AU38"/>
+      <c r="AV38"/>
+      <c r="AW38"/>
+      <c r="AX38"/>
+      <c r="AY38"/>
+      <c r="AZ38"/>
+      <c r="BA38"/>
+      <c r="BB38"/>
+      <c r="BC38"/>
+      <c r="BD38"/>
+    </row>
+    <row r="39" spans="1:56" s="15" customFormat="1">
+      <c r="A39" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="12">
+        <f>B38-B29</f>
+        <v>9222.239999999998</v>
+      </c>
+      <c r="C39" s="12">
+        <f t="shared" ref="C39" si="4">C38-C29</f>
+        <v>17691.36</v>
+      </c>
+      <c r="D39" s="12">
+        <f t="shared" ref="D39" si="5">D38-D29</f>
+        <v>13039.68</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" ref="E39" si="6">E38-E29</f>
+        <v>9558.2400000000052</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" ref="F39" si="7">F38-F29</f>
+        <v>7986.2400000000052</v>
+      </c>
+      <c r="G39" s="12">
+        <f t="shared" ref="G39" si="8">G38-G29</f>
+        <v>20721.12000000001</v>
+      </c>
+      <c r="H39" s="12">
+        <f t="shared" ref="H39" si="9">H38-H29</f>
+        <v>19712.160000000003</v>
+      </c>
+      <c r="I39" s="12">
+        <f t="shared" ref="I39" si="10">I38-I29</f>
+        <v>16524.96</v>
+      </c>
+      <c r="J39" s="12">
+        <f t="shared" ref="J39" si="11">J38-J29</f>
+        <v>8007.8400000000038</v>
+      </c>
+      <c r="K39" s="12">
+        <f t="shared" ref="K39" si="12">K38-K29</f>
+        <v>16164.000000000015</v>
+      </c>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="16"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="16"/>
+      <c r="AL39" s="16"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="16"/>
+      <c r="AO39" s="16"/>
+      <c r="AP39" s="16"/>
+      <c r="AQ39" s="16"/>
+      <c r="AR39" s="16"/>
+      <c r="AS39" s="16"/>
+      <c r="AT39" s="16"/>
+    </row>
+    <row r="40" spans="1:56" s="15" customFormat="1">
+      <c r="A40" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="49">
+        <f>(B38-B29)/B29</f>
+        <v>0.2534696569920844</v>
+      </c>
+      <c r="C40" s="49">
+        <f t="shared" ref="C40:K40" si="13">(C38-C29)/C29</f>
+        <v>0.32295290251916758</v>
+      </c>
+      <c r="D40" s="49">
+        <f t="shared" si="13"/>
+        <v>0.2938040080897224</v>
+      </c>
+      <c r="E40" s="49">
+        <f t="shared" si="13"/>
+        <v>0.21685579247707634</v>
+      </c>
+      <c r="F40" s="49">
+        <f t="shared" si="13"/>
+        <v>0.21233855735361698</v>
+      </c>
+      <c r="G40" s="49">
+        <f t="shared" si="13"/>
+        <v>0.32486228590349497</v>
+      </c>
+      <c r="H40" s="49">
+        <f t="shared" si="13"/>
+        <v>0.37539420642247967</v>
+      </c>
+      <c r="I40" s="49">
+        <f t="shared" si="13"/>
+        <v>0.34941691110051049</v>
+      </c>
+      <c r="J40" s="49">
+        <f t="shared" si="13"/>
+        <v>0.22747167341596117</v>
+      </c>
+      <c r="K40" s="49">
+        <f t="shared" si="13"/>
+        <v>0.2309876737980755</v>
+      </c>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="16"/>
+      <c r="AI40" s="16"/>
+      <c r="AJ40" s="16"/>
+      <c r="AK40" s="16"/>
+      <c r="AL40" s="16"/>
+      <c r="AM40" s="16"/>
+      <c r="AN40" s="16"/>
+      <c r="AO40" s="16"/>
+      <c r="AP40" s="16"/>
+      <c r="AQ40" s="16"/>
+      <c r="AR40" s="16"/>
+      <c r="AS40" s="16"/>
+      <c r="AT40" s="16"/>
+    </row>
+    <row r="43" spans="1:56">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:56">
+      <c r="A44" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="18:56">
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="BB55"/>
+      <c r="BC55"/>
+      <c r="BD55"/>
+    </row>
+    <row r="56" spans="18:56">
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="BB56"/>
+      <c r="BC56"/>
+      <c r="BD56"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" xr:uid="{00AE2A78-4776-46FA-BE5A-29CFC73383BA}"/>
+    <hyperlink ref="A44" r:id="rId1" xr:uid="{00AE2A78-4776-46FA-BE5A-29CFC73383BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -50906,8 +52540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19522EB3-F96C-4818-BC8B-5704928AD35A}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:M19"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -50932,23 +52566,23 @@
         <v>32</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>63</v>
+      <c r="A2" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16">
@@ -50956,50 +52590,50 @@
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="74.5" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -51009,31 +52643,31 @@
       <c r="C8" s="6">
         <v>921.9</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="41">
         <v>1310.47</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="41">
         <v>1238.99</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="41">
         <v>1002.17</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="42">
         <v>914.07</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="42">
         <v>754.02</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="42">
         <v>941.25</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="42">
         <v>973.99</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="41">
         <v>1124.1600000000001</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="41">
         <v>1087.03</v>
       </c>
     </row>
@@ -51044,31 +52678,31 @@
       <c r="C9" s="6">
         <v>941.25</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="41">
         <v>1354.91</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="41">
         <v>1312.39</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="41">
         <v>1014.13</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="42">
         <v>931.73</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="42">
         <v>766.04</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="42">
         <v>972.11</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="42">
         <v>979.53</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="41">
         <v>1129.3699999999999</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="41">
         <v>1133.78</v>
       </c>
     </row>
@@ -51079,31 +52713,31 @@
       <c r="C10" s="6">
         <v>961.37</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="41">
         <v>1394.2</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="41">
         <v>1310.01</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="41">
         <v>1045.17</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="42">
         <v>933.37</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="42">
         <v>779.64</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="42">
         <v>976.52</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="41">
         <v>1009.77</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="41">
         <v>1165.4100000000001</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="41">
         <v>1162.69</v>
       </c>
     </row>
@@ -51114,31 +52748,31 @@
       <c r="C11" s="6">
         <v>989.89</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="41">
         <v>1488.37</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="41">
         <v>1339.49</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="41">
         <v>1081.3900000000001</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="42">
         <v>958.78</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="42">
         <v>797.76</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="41">
         <v>1001.48</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="41">
         <v>1054.54</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="41">
         <v>1204.31</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="41">
         <v>1195.1500000000001</v>
       </c>
     </row>
@@ -51149,31 +52783,31 @@
       <c r="C12" s="7">
         <v>1012.19</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="41">
         <v>1538.15</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="41">
         <v>1370.4</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="41">
         <v>1107.8499999999999</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="42">
         <v>980.73</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="42">
         <v>814.37</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="41">
         <v>1029.55</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="41">
         <v>1063.71</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="41">
         <v>1247.05</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="41">
         <v>1206.8599999999999</v>
       </c>
     </row>
@@ -51184,31 +52818,31 @@
       <c r="C13" s="7">
         <v>1030.54</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="41">
         <v>1563.31</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="41">
         <v>1437.17</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="41">
         <v>1134.32</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="41">
         <v>1004.5</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="42">
         <v>836.6</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="41">
         <v>1031.0999999999999</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="41">
         <v>1114.8</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="41">
         <v>1248.67</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="41">
         <v>1213.92</v>
       </c>
     </row>
@@ -51219,31 +52853,31 @@
       <c r="C14" s="7">
         <v>1057.1600000000001</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="41">
         <v>1584.79</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="41">
         <v>1465.92</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="41">
         <v>1175.8</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="41">
         <v>1017.52</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="42">
         <v>869.68</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="41">
         <v>1061.23</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="41">
         <v>1142.73</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="41">
         <v>1276.3499999999999</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="41">
         <v>1243.3399999999999</v>
       </c>
     </row>
@@ -51254,31 +52888,31 @@
       <c r="C15" s="7">
         <v>1078.94</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="41">
         <v>1633.29</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="41">
         <v>1461.91</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="41">
         <v>1194.19</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="41">
         <v>1025.3399999999999</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="42">
         <v>882</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="41">
         <v>1080.4000000000001</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="41">
         <v>1180.04</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="41">
         <v>1332.13</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="41">
         <v>1288.45</v>
       </c>
     </row>
@@ -51289,31 +52923,31 @@
       <c r="C16" s="7">
         <v>1095.27</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="41">
         <v>1698.49</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="41">
         <v>1562.78</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="41">
         <v>1209.3499999999999</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="41">
         <v>1038.7</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="42">
         <v>905.51</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="41">
         <v>1105.0899999999999</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="41">
         <v>1191.23</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="41">
         <v>1324.77</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="41">
         <v>1279.5999999999999</v>
       </c>
     </row>
@@ -51324,31 +52958,31 @@
       <c r="C17" s="21">
         <v>1120.95</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="43">
         <v>1714.82</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="43">
         <v>1595.69</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="43">
         <v>1212.51</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="43">
         <v>1069.95</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="44">
         <v>919.65</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="43">
         <v>1137.3699999999999</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="43">
         <v>1230.51</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="43">
         <v>1339.72</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="43">
         <v>1303.3399999999999</v>
       </c>
     </row>
@@ -51360,179 +52994,669 @@
         <f>C17-C8</f>
         <v>199.05000000000007</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="45">
         <f t="shared" ref="D18:L18" si="0">D17-D8</f>
         <v>404.34999999999991</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="45">
         <f t="shared" si="0"/>
         <v>356.70000000000005</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="45">
         <f t="shared" si="0"/>
         <v>210.34000000000003</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="45">
         <f t="shared" si="0"/>
         <v>155.88</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="45">
         <f t="shared" si="0"/>
         <v>165.63</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="45">
         <f t="shared" si="0"/>
         <v>196.11999999999989</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="45">
         <f t="shared" si="0"/>
         <v>256.52</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="45">
         <f t="shared" si="0"/>
         <v>215.55999999999995</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="45">
         <f t="shared" si="0"/>
         <v>216.30999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="17" customFormat="1">
       <c r="B19" s="17" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C19" s="18">
         <f>(C17-C8)/C8</f>
         <v>0.21591278880572737</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="46">
         <f t="shared" ref="D19:L19" si="1">(D17-D8)/D8</f>
         <v>0.30855341976542761</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="46">
         <f t="shared" si="1"/>
         <v>0.28789578608382638</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="46">
         <f t="shared" si="1"/>
         <v>0.20988455052536001</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="46">
         <f t="shared" si="1"/>
         <v>0.17053398536217138</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="46">
         <f t="shared" si="1"/>
         <v>0.21966260841887483</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="46">
         <f t="shared" si="1"/>
         <v>0.20836122177954836</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="46">
         <f t="shared" si="1"/>
         <v>0.26337026047495354</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="46">
         <f t="shared" si="1"/>
         <v>0.19175206376316534</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="46">
         <f t="shared" si="1"/>
         <v>0.1989917481578245</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="6" t="s">
-        <v>48</v>
+    <row r="21" spans="1:12">
+      <c r="A21" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="10" customFormat="1" ht="74.5" customHeight="1">
+      <c r="B22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23" s="6">
+        <v>2009</v>
+      </c>
+      <c r="C23" s="6">
+        <f>C8*12*4</f>
+        <v>44251.199999999997</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" ref="D23:L23" si="2">D8*12*4</f>
+        <v>62902.559999999998</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="2"/>
+        <v>59471.520000000004</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="2"/>
+        <v>48104.159999999996</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="2"/>
+        <v>43875.360000000001</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="2"/>
+        <v>36192.959999999999</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="2"/>
+        <v>45180</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="2"/>
+        <v>46751.520000000004</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="2"/>
+        <v>53959.680000000008</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="2"/>
+        <v>52177.440000000002</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="6" t="s">
-        <v>47</v>
+      <c r="B24" s="6">
+        <v>2010</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" ref="C24:L32" si="3">C9*12*4</f>
+        <v>45180</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="3"/>
+        <v>65035.680000000008</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="3"/>
+        <v>62994.720000000001</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="3"/>
+        <v>48678.239999999998</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="3"/>
+        <v>44723.040000000001</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="3"/>
+        <v>36769.919999999998</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="3"/>
+        <v>46661.279999999999</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="3"/>
+        <v>47017.440000000002</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="3"/>
+        <v>54209.759999999995</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="3"/>
+        <v>54421.440000000002</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="6">
-        <v>1</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>46</v>
+      <c r="B25" s="6">
+        <v>2011</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="3"/>
+        <v>46145.760000000002</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="3"/>
+        <v>66921.600000000006</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="3"/>
+        <v>62880.479999999996</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="3"/>
+        <v>50168.160000000003</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="3"/>
+        <v>44801.760000000002</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="3"/>
+        <v>37422.720000000001</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="3"/>
+        <v>46872.959999999999</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="3"/>
+        <v>48468.959999999999</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="3"/>
+        <v>55939.680000000008</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="3"/>
+        <v>55809.120000000003</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="6">
-        <v>2</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>45</v>
+      <c r="B26" s="6">
+        <v>2012</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="3"/>
+        <v>47514.720000000001</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="3"/>
+        <v>71441.759999999995</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="3"/>
+        <v>64295.520000000004</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="3"/>
+        <v>51906.720000000001</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="3"/>
+        <v>46021.440000000002</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="3"/>
+        <v>38292.479999999996</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="3"/>
+        <v>48071.040000000001</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="3"/>
+        <v>50617.919999999998</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="3"/>
+        <v>57806.879999999997</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="3"/>
+        <v>57367.200000000004</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="6">
-        <v>3</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>44</v>
+      <c r="B27" s="6">
+        <v>2013</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="3"/>
+        <v>48585.120000000003</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="3"/>
+        <v>73831.200000000012</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="3"/>
+        <v>65779.200000000012</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="3"/>
+        <v>53176.799999999996</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="3"/>
+        <v>47075.040000000001</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="3"/>
+        <v>39089.760000000002</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="3"/>
+        <v>49418.399999999994</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="3"/>
+        <v>51058.080000000002</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="3"/>
+        <v>59858.399999999994</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="3"/>
+        <v>57929.279999999999</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="6">
-        <v>4</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>43</v>
+      <c r="B28" s="6">
+        <v>2014</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="3"/>
+        <v>49465.919999999998</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="3"/>
+        <v>75038.880000000005</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="3"/>
+        <v>68984.160000000003</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="3"/>
+        <v>54447.360000000001</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="3"/>
+        <v>48216</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="3"/>
+        <v>40156.800000000003</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="3"/>
+        <v>49492.799999999996</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="3"/>
+        <v>53510.399999999994</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="3"/>
+        <v>59936.160000000003</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="3"/>
+        <v>58268.160000000003</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="6">
-        <v>5</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>42</v>
+      <c r="B29" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="3"/>
+        <v>50743.680000000008</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="3"/>
+        <v>76069.919999999998</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="3"/>
+        <v>70364.160000000003</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="3"/>
+        <v>56438.399999999994</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="3"/>
+        <v>48840.959999999999</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="3"/>
+        <v>41744.639999999999</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="3"/>
+        <v>50939.040000000001</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="3"/>
+        <v>54851.040000000001</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="3"/>
+        <v>61264.799999999996</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="3"/>
+        <v>59680.319999999992</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="6">
-        <v>6</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>41</v>
+      <c r="B30" s="6">
+        <v>2016</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="3"/>
+        <v>51789.120000000003</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="3"/>
+        <v>78397.919999999998</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="3"/>
+        <v>70171.680000000008</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="3"/>
+        <v>57321.120000000003</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="3"/>
+        <v>49216.319999999992</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="3"/>
+        <v>42336</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="3"/>
+        <v>51859.200000000004</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="3"/>
+        <v>56641.919999999998</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="3"/>
+        <v>63942.240000000005</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="3"/>
+        <v>61845.600000000006</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="6">
-        <v>7</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="6">
-        <v>8</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="6">
-        <v>9</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="6">
-        <v>10</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="B31" s="6">
+        <v>2017</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="3"/>
+        <v>52572.959999999999</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" si="3"/>
+        <v>81527.520000000004</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="3"/>
+        <v>75013.440000000002</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="3"/>
+        <v>58048.799999999996</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="3"/>
+        <v>49857.600000000006</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="3"/>
+        <v>43464.479999999996</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="3"/>
+        <v>53044.319999999992</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="3"/>
+        <v>57179.040000000001</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="3"/>
+        <v>63588.959999999999</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="3"/>
+        <v>61420.799999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="20" customFormat="1">
+      <c r="B32" s="20">
+        <v>2018</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="3"/>
+        <v>53805.600000000006</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" si="3"/>
+        <v>82311.360000000001</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="3"/>
+        <v>76593.119999999995</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="3"/>
+        <v>58200.479999999996</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="3"/>
+        <v>51357.600000000006</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="3"/>
+        <v>44143.199999999997</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="3"/>
+        <v>54593.759999999995</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="3"/>
+        <v>59064.479999999996</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="3"/>
+        <v>64306.559999999998</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="3"/>
+        <v>62560.319999999992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="17" customFormat="1">
+      <c r="B33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="19">
+        <f>C32-C23</f>
+        <v>9554.4000000000087</v>
+      </c>
+      <c r="D33" s="25">
+        <f t="shared" ref="D33:L33" si="4">D32-D23</f>
+        <v>19408.800000000003</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" si="4"/>
+        <v>17121.599999999991</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" si="4"/>
+        <v>10096.32</v>
+      </c>
+      <c r="G33" s="25">
+        <f t="shared" si="4"/>
+        <v>7482.2400000000052</v>
+      </c>
+      <c r="H33" s="25">
+        <f t="shared" si="4"/>
+        <v>7950.239999999998</v>
+      </c>
+      <c r="I33" s="25">
+        <f t="shared" si="4"/>
+        <v>9413.7599999999948</v>
+      </c>
+      <c r="J33" s="25">
+        <f t="shared" si="4"/>
+        <v>12312.959999999992</v>
+      </c>
+      <c r="K33" s="25">
+        <f t="shared" si="4"/>
+        <v>10346.87999999999</v>
+      </c>
+      <c r="L33" s="25">
+        <f t="shared" si="4"/>
+        <v>10382.87999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="17" customFormat="1">
+      <c r="B34" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="50">
+        <f>(C32-C23)/C23</f>
+        <v>0.21591278880572751</v>
+      </c>
+      <c r="D34" s="51">
+        <f t="shared" ref="D34:L34" si="5">(D32-D23)/D23</f>
+        <v>0.30855341976542772</v>
+      </c>
+      <c r="E34" s="51">
+        <f t="shared" si="5"/>
+        <v>0.28789578608382616</v>
+      </c>
+      <c r="F34" s="51">
+        <f t="shared" si="5"/>
+        <v>0.20988455052535998</v>
+      </c>
+      <c r="G34" s="51">
+        <f t="shared" si="5"/>
+        <v>0.17053398536217151</v>
+      </c>
+      <c r="H34" s="51">
+        <f t="shared" si="5"/>
+        <v>0.21966260841887478</v>
+      </c>
+      <c r="I34" s="51">
+        <f t="shared" si="5"/>
+        <v>0.20836122177954836</v>
+      </c>
+      <c r="J34" s="51">
+        <f t="shared" si="5"/>
+        <v>0.26337026047495332</v>
+      </c>
+      <c r="K34" s="51">
+        <f t="shared" si="5"/>
+        <v>0.19175206376316517</v>
+      </c>
+      <c r="L34" s="51">
+        <f t="shared" si="5"/>
+        <v>0.19899174815782433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="6">
         <v>11</v>
       </c>
@@ -51540,7 +53664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:12">
       <c r="A36" s="6">
         <v>12</v>
       </c>
@@ -51548,24 +53672,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:12">
       <c r="A38" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:12">
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -51573,8 +53698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA679FFC-C49A-436D-8027-E61944F256C6}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -51592,7 +53717,7 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -51602,10 +53727,10 @@
     </row>
     <row r="4" spans="1:24" s="3" customFormat="1" ht="80">
       <c r="A4" s="24" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>2</v>
@@ -51614,7 +53739,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>5</v>
@@ -51639,43 +53764,43 @@
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="52">
         <f>'China '!B19</f>
         <v>1.7240507720204405</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="52">
         <f>'China '!C19</f>
         <v>1.3767584757182127</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="52">
         <f>'China '!D19</f>
         <v>1.8548667439165698</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="52">
         <f>'China '!E19</f>
         <v>1.4860354032031469</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="52">
         <f>'China '!F19</f>
         <v>1.5609805204610663</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="52">
         <f>'China '!G19</f>
         <v>1.5416033755274261</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="52">
         <f>'China '!H19</f>
         <v>1.5744626668024855</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="52">
         <f>'China '!I19</f>
         <v>1.7098629553362212</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="52">
         <f>'China '!J19</f>
         <v>1.0669578352817553</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="52">
         <f>'China '!K19</f>
         <v>1.1944365328016708</v>
       </c>
@@ -51696,44 +53821,44 @@
       <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="25">
-        <f>'US '!B11</f>
+      <c r="B6" s="52">
+        <f>'US '!B19</f>
         <v>0.2534696569920844</v>
       </c>
-      <c r="C6" s="25">
-        <f>'US '!C11</f>
+      <c r="C6" s="52">
+        <f>'US '!C19</f>
         <v>0.32295290251916753</v>
       </c>
-      <c r="D6" s="25">
-        <f>'US '!E11</f>
+      <c r="D6" s="52">
+        <f>'US '!E19</f>
         <v>0.21685579247707634</v>
       </c>
-      <c r="E6" s="25">
-        <f>'US '!G11</f>
+      <c r="E6" s="52">
+        <f>'US '!G19</f>
         <v>0.32486228590349486</v>
       </c>
-      <c r="F6" s="25">
-        <f>'US '!D11</f>
+      <c r="F6" s="52">
+        <f>'US '!D19</f>
         <v>0.29380400808972235</v>
       </c>
-      <c r="G6" s="25" t="e">
-        <f>'US '!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="25">
-        <f>'US '!F11</f>
+      <c r="G6" s="52">
+        <f>'US '!K19</f>
+        <v>0.23098767379807544</v>
+      </c>
+      <c r="H6" s="52">
+        <f>'US '!F19</f>
         <v>0.21233855735361698</v>
       </c>
-      <c r="I6" s="25">
-        <f>'US '!H11</f>
+      <c r="I6" s="52">
+        <f>'US '!H19</f>
         <v>0.37539420642247967</v>
       </c>
-      <c r="J6" s="25">
-        <f>'US '!I11</f>
+      <c r="J6" s="52">
+        <f>'US '!I19</f>
         <v>0.34941691110051049</v>
       </c>
-      <c r="K6" s="26">
-        <f>'US '!J11</f>
+      <c r="K6" s="53">
+        <f>'US '!J19</f>
         <v>0.22747167341596111</v>
       </c>
       <c r="L6" s="22"/>
@@ -51753,43 +53878,43 @@
       <c r="A7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="52">
         <f>'Canada '!C19</f>
         <v>0.21591278880572737</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="52">
         <f>'Canada '!D19</f>
         <v>0.30855341976542761</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="52">
         <f>'Canada '!G19</f>
         <v>0.17053398536217138</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="52">
         <f>'Canada '!E19</f>
         <v>0.28789578608382638</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="52">
         <f>'Canada '!F19</f>
         <v>0.20988455052536001</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="52">
         <f>'Canada '!H19</f>
         <v>0.21966260841887483</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="52">
         <f>'Canada '!I19</f>
         <v>0.20836122177954836</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="52">
         <f>'Canada '!K19</f>
         <v>0.19175206376316534</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="52">
         <f>'Canada '!J19</f>
         <v>0.26337026047495354</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="52">
         <f>'Canada '!L19</f>
         <v>0.1989917481578245</v>
       </c>
@@ -51882,7 +54007,7 @@
       <c r="X10" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
